--- a/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler Belakang.xlsx
+++ b/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler Belakang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\Reguler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6365D1B6-F011-4138-AA37-7305F21E74DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FBD04-B1BF-4564-9C6E-23DA5E219D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77F3B767-EA62-4568-9457-D27E96752406}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{77F3B767-EA62-4568-9457-D27E96752406}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +893,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,21 +949,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,6 +963,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,9 +1303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08589FBE-3E58-4921-BC9F-7CD8E036E268}">
   <dimension ref="A1:DZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="DB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DR26" sqref="DR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,8 +1313,8 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="32" customWidth="1"/>
-    <col min="5" max="6" width="22.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="27" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" style="28" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
@@ -1365,231 +1374,231 @@
     <col min="127" max="127" width="19" customWidth="1"/>
     <col min="128" max="128" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="242.42578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="224.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="224.140625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="21" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21" t="s">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21" t="s">
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21" t="s">
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21" t="s">
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="22" t="s">
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="21" t="s">
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21" t="s">
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21" t="s">
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21" t="s">
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21" t="s">
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="31"/>
+      <c r="CJ1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="21"/>
-      <c r="CN1" s="21"/>
-      <c r="CO1" s="22" t="s">
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="31"/>
+      <c r="CO1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
-      <c r="CS1" s="22"/>
-      <c r="CT1" s="21" t="s">
+      <c r="CP1" s="32"/>
+      <c r="CQ1" s="32"/>
+      <c r="CR1" s="32"/>
+      <c r="CS1" s="32"/>
+      <c r="CT1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CU1" s="21"/>
-      <c r="CV1" s="21"/>
-      <c r="CW1" s="21"/>
-      <c r="CX1" s="21"/>
-      <c r="CY1" s="21" t="s">
+      <c r="CU1" s="31"/>
+      <c r="CV1" s="31"/>
+      <c r="CW1" s="31"/>
+      <c r="CX1" s="31"/>
+      <c r="CY1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="CZ1" s="21"/>
-      <c r="DA1" s="21"/>
-      <c r="DB1" s="21"/>
-      <c r="DC1" s="21"/>
-      <c r="DD1" s="21" t="s">
+      <c r="CZ1" s="31"/>
+      <c r="DA1" s="31"/>
+      <c r="DB1" s="31"/>
+      <c r="DC1" s="31"/>
+      <c r="DD1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21" t="s">
+      <c r="DE1" s="31"/>
+      <c r="DF1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="DG1" s="21"/>
-      <c r="DH1" s="21" t="s">
+      <c r="DG1" s="31"/>
+      <c r="DH1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="DI1" s="21"/>
-      <c r="DJ1" s="21" t="s">
+      <c r="DI1" s="31"/>
+      <c r="DJ1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="DK1" s="21"/>
-      <c r="DL1" s="21" t="s">
+      <c r="DK1" s="31"/>
+      <c r="DL1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="DM1" s="21"/>
-      <c r="DN1" s="21" t="s">
+      <c r="DM1" s="31"/>
+      <c r="DN1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="23" t="s">
+      <c r="DO1" s="31"/>
+      <c r="DP1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="23" t="s">
+      <c r="DQ1" s="30"/>
+      <c r="DR1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="DS1" s="23"/>
-      <c r="DT1" s="23" t="s">
+      <c r="DS1" s="30"/>
+      <c r="DT1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="DU1" s="23"/>
-      <c r="DV1" s="21" t="s">
+      <c r="DU1" s="30"/>
+      <c r="DV1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="DW1" s="23" t="s">
+      <c r="DW1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DX1" s="23" t="s">
+      <c r="DX1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DY1" s="23" t="s">
+      <c r="DY1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DZ1" s="25" t="s">
+      <c r="DZ1" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1944,11 +1953,11 @@
       <c r="DU2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="DV2" s="21"/>
-      <c r="DW2" s="23"/>
-      <c r="DX2" s="23"/>
-      <c r="DY2" s="23"/>
-      <c r="DZ2" s="25"/>
+      <c r="DV2" s="31"/>
+      <c r="DW2" s="30"/>
+      <c r="DX2" s="30"/>
+      <c r="DY2" s="30"/>
+      <c r="DZ2" s="29"/>
     </row>
     <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1969,7 +1978,7 @@
       <c r="F3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>161</v>
       </c>
       <c r="H3" s="9">
@@ -2426,7 +2435,7 @@
       <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>163</v>
       </c>
       <c r="H4" s="9">
@@ -2883,7 +2892,7 @@
       <c r="F5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="9">
@@ -3340,7 +3349,7 @@
       <c r="F6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="21" t="s">
         <v>167</v>
       </c>
       <c r="H6" s="9">
@@ -3782,7 +3791,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="6">
@@ -3797,7 +3806,7 @@
       <c r="F7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="9">
@@ -4254,7 +4263,7 @@
       <c r="F8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="21" t="s">
         <v>172</v>
       </c>
       <c r="H8" s="9">
@@ -4711,7 +4720,7 @@
       <c r="F9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="21" t="s">
         <v>174</v>
       </c>
       <c r="H9" s="18">
@@ -5168,7 +5177,7 @@
       <c r="F10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="21" t="s">
         <v>176</v>
       </c>
       <c r="H10" s="18">
@@ -5514,22 +5523,22 @@
         <v>16</v>
       </c>
       <c r="CY10" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="CZ10" s="2" t="str">
         <f t="shared" si="57"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="DA10" s="1">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DB10" s="2">
         <v>4</v>
       </c>
       <c r="DC10" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DD10" s="4">
         <v>76</v>
@@ -5561,8 +5570,8 @@
       <c r="DM10" s="4">
         <v>21</v>
       </c>
-      <c r="DN10" s="4">
-        <v>63</v>
+      <c r="DN10" s="34">
+        <v>66.5</v>
       </c>
       <c r="DO10" s="4">
         <v>19</v>
@@ -5574,14 +5583,14 @@
         <v>17</v>
       </c>
       <c r="DR10" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DS10" s="4">
         <v>4</v>
       </c>
       <c r="DT10" s="4">
-        <f t="shared" si="60"/>
-        <v>494.5</v>
+        <f>DD10+DF10+DH10+DJ10+DL10+DN10+DP10+DR10</f>
+        <v>514</v>
       </c>
       <c r="DU10" s="4">
         <f t="shared" si="60"/>
@@ -5589,15 +5598,15 @@
       </c>
       <c r="DV10" s="14">
         <f t="shared" si="61"/>
-        <v>3.4340277777777777</v>
+        <v>3.5694444444444446</v>
       </c>
       <c r="DW10" s="4" t="str">
         <f t="shared" si="62"/>
-        <v>Sangat Memuaskan</v>
+        <v>Cum Laude</v>
       </c>
       <c r="DX10" s="4" t="str">
         <f t="shared" si="63"/>
-        <v>Highly Satisfactory</v>
+        <v>Excellent</v>
       </c>
       <c r="DY10" s="15" t="s">
         <v>140</v>
@@ -5610,7 +5619,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="6">
@@ -5625,7 +5634,7 @@
       <c r="F11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="21" t="s">
         <v>178</v>
       </c>
       <c r="H11" s="18">
@@ -6067,7 +6076,7 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="6">
@@ -6082,7 +6091,7 @@
       <c r="F12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>181</v>
       </c>
       <c r="H12" s="18">
@@ -6539,7 +6548,7 @@
       <c r="F13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="21" t="s">
         <v>184</v>
       </c>
       <c r="H13" s="18">
@@ -6996,7 +7005,7 @@
       <c r="F14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="21" t="s">
         <v>186</v>
       </c>
       <c r="H14" s="18">
@@ -7438,7 +7447,7 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="6">
@@ -7453,7 +7462,7 @@
       <c r="F15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="21" t="s">
         <v>189</v>
       </c>
       <c r="H15" s="18">
@@ -7910,7 +7919,7 @@
       <c r="F16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="21" t="s">
         <v>192</v>
       </c>
       <c r="H16" s="18">
@@ -8367,7 +8376,7 @@
       <c r="F17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="21" t="s">
         <v>194</v>
       </c>
       <c r="H17" s="8">
@@ -8809,7 +8818,7 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="6">
@@ -8824,7 +8833,7 @@
       <c r="F18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="21" t="s">
         <v>196</v>
       </c>
       <c r="H18" s="8">
@@ -9281,7 +9290,7 @@
       <c r="F19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="21" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="8">
@@ -9738,7 +9747,7 @@
       <c r="F20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="21" t="s">
         <v>201</v>
       </c>
       <c r="H20" s="8">
@@ -10180,7 +10189,7 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="4">
@@ -10195,7 +10204,7 @@
       <c r="F21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="21" t="s">
         <v>203</v>
       </c>
       <c r="H21" s="8">
@@ -10637,7 +10646,7 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="4">
@@ -10652,7 +10661,7 @@
       <c r="F22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="21" t="s">
         <v>206</v>
       </c>
       <c r="H22" s="8">
@@ -11109,7 +11118,7 @@
       <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="21" t="s">
         <v>209</v>
       </c>
       <c r="H23" s="8">
@@ -11551,7 +11560,7 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="4">
@@ -11566,7 +11575,7 @@
       <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="21" t="s">
         <v>211</v>
       </c>
       <c r="H24" s="8">
@@ -12008,7 +12017,7 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="4">
@@ -12023,7 +12032,7 @@
       <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="21" t="s">
         <v>214</v>
       </c>
       <c r="H25" s="8">
@@ -12369,22 +12378,22 @@
         <v>14</v>
       </c>
       <c r="CY25" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="CZ25" s="2" t="str">
         <f t="shared" si="57"/>
-        <v>E</v>
+        <v>B+</v>
       </c>
       <c r="DA25" s="1">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="DB25" s="2">
         <v>4</v>
       </c>
       <c r="DC25" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DD25" s="4">
         <v>74.5</v>
@@ -12429,14 +12438,14 @@
         <v>17</v>
       </c>
       <c r="DR25" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DS25" s="4">
         <v>4</v>
       </c>
       <c r="DT25" s="4">
         <f t="shared" si="60"/>
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="DU25" s="4">
         <f t="shared" si="60"/>
@@ -12444,15 +12453,15 @@
       </c>
       <c r="DV25" s="14">
         <f t="shared" si="61"/>
-        <v>3.4791666666666665</v>
+        <v>3.5763888888888888</v>
       </c>
       <c r="DW25" s="4" t="str">
         <f t="shared" si="62"/>
-        <v>Sangat Memuaskan</v>
+        <v>Cum Laude</v>
       </c>
       <c r="DX25" s="4" t="str">
         <f t="shared" si="63"/>
-        <v>Highly Satisfactory</v>
+        <v>Excellent</v>
       </c>
       <c r="DY25" s="15" t="s">
         <v>215</v>
@@ -12480,7 +12489,7 @@
       <c r="F26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="21" t="s">
         <v>217</v>
       </c>
       <c r="H26" s="8">
@@ -12922,7 +12931,7 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="4">
@@ -12937,7 +12946,7 @@
       <c r="F27" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="21" t="s">
         <v>220</v>
       </c>
       <c r="H27" s="8">
@@ -13371,7 +13380,7 @@
       <c r="DY27" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="DZ27" s="30" t="s">
+      <c r="DZ27" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -13379,7 +13388,7 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="24" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="4">
@@ -13394,7 +13403,7 @@
       <c r="F28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="21" t="s">
         <v>223</v>
       </c>
       <c r="H28" s="8">
@@ -13851,7 +13860,7 @@
       <c r="F29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="21" t="s">
         <v>226</v>
       </c>
       <c r="H29" s="8">
@@ -14293,7 +14302,7 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="24" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="4">
@@ -14308,7 +14317,7 @@
       <c r="F30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="21" t="s">
         <v>228</v>
       </c>
       <c r="H30" s="8">
@@ -14750,7 +14759,7 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="24" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="4">
@@ -14765,7 +14774,7 @@
       <c r="F31" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="21" t="s">
         <v>231</v>
       </c>
       <c r="H31" s="8">
@@ -15207,7 +15216,7 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="4">
@@ -15222,7 +15231,7 @@
       <c r="F32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="21" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="8">
@@ -15664,7 +15673,7 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="4">
@@ -15679,7 +15688,7 @@
       <c r="F33" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="21" t="s">
         <v>237</v>
       </c>
       <c r="H33" s="8">
@@ -16121,7 +16130,7 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="4">
@@ -16136,7 +16145,7 @@
       <c r="F34" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="21" t="s">
         <v>240</v>
       </c>
       <c r="H34" s="8">
@@ -16593,7 +16602,7 @@
       <c r="F35" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="21" t="s">
         <v>243</v>
       </c>
       <c r="H35" s="8">
@@ -17024,7 +17033,7 @@
         <f t="shared" si="63"/>
         <v>Excellent</v>
       </c>
-      <c r="DY35" s="31" t="s">
+      <c r="DY35" s="26" t="s">
         <v>150</v>
       </c>
       <c r="DZ35" s="15" t="s">
@@ -17033,47 +17042,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DE1"/>
+    <mergeCell ref="DF1:DG1"/>
+    <mergeCell ref="DH1:DI1"/>
+    <mergeCell ref="DJ1:DK1"/>
+    <mergeCell ref="DL1:DM1"/>
+    <mergeCell ref="DN1:DO1"/>
+    <mergeCell ref="DP1:DQ1"/>
+    <mergeCell ref="DR1:DS1"/>
     <mergeCell ref="DZ1:DZ2"/>
     <mergeCell ref="DT1:DU1"/>
     <mergeCell ref="DV1:DV2"/>
     <mergeCell ref="DW1:DW2"/>
     <mergeCell ref="DX1:DX2"/>
     <mergeCell ref="DY1:DY2"/>
-    <mergeCell ref="DJ1:DK1"/>
-    <mergeCell ref="DL1:DM1"/>
-    <mergeCell ref="DN1:DO1"/>
-    <mergeCell ref="DP1:DQ1"/>
-    <mergeCell ref="DR1:DS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DE1"/>
-    <mergeCell ref="DF1:DG1"/>
-    <mergeCell ref="DH1:DI1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
